--- a/biology/Botanique/Vaccinium_cespitosum/Vaccinium_cespitosum.xlsx
+++ b/biology/Botanique/Vaccinium_cespitosum/Vaccinium_cespitosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vaccinium cespitosum (aussi orthographié caespitosum), également appelée Airelle gazonnante, est une espèce de plantes à fleurs du genre Vaccinium, qui comprend les bleuets , les myrtilles et les canneberges.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est une plante basse ou un arbuste atteignant rarement cinquante centimètres de hauteur, formant un peuplement semblable à un tapis dans les prairies rocheuses et montagneuses. Le feuillage de l'airelle gazonnante passe du vert-rougeâtre au vert et les fleurs sont de minuscules "coupes" rose pâle en forme d'urne mesurant moins d'un centimètre de large. Les fruits sont des myrtilles bleues comestibles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est une plante basse ou un arbuste atteignant rarement cinquante centimètres de hauteur, formant un peuplement semblable à un tapis dans les prairies rocheuses et montagneuses. Le feuillage de l'airelle gazonnante passe du vert-rougeâtre au vert et les fleurs sont de minuscules "coupes" rose pâle en forme d'urne mesurant moins d'un centimètre de large. Les fruits sont des myrtilles bleues comestibles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est répandue dans une grande partie du Canada, y compris dans les trois territoires arctiques, ainsi que dans le nord et l'ouest des États-Unis, au Mexique et au Guatemala[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est répandue dans une grande partie du Canada, y compris dans les trois territoires arctiques, ainsi que dans le nord et l'ouest des États-Unis, au Mexique et au Guatemala,.
 </t>
         </is>
       </c>
